--- a/Class_I/output.xlsx
+++ b/Class_I/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="150">
   <si>
     <t>Student Name</t>
   </si>
@@ -28,274 +28,274 @@
     <t>Roll No</t>
   </si>
   <si>
-    <t>Formative Assessment -I_Assamese</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Assamese_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_EVS</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_EVS_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_EVS_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Hindi</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Hindi_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English II</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English II_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English II_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Computer</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Computer_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Computer_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English I</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English I_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_English I_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Maths</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Maths_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Maths_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Drawing</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Drawing_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Drawing_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Moral Science</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Moral Science_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_Moral Science_pass</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_General Knowledge</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>Formative Assessment -I_General Knowledge_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Assamese</t>
-  </si>
-  <si>
-    <t>F.A-2_Assamese_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Assamese_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_EVS</t>
-  </si>
-  <si>
-    <t>F.A-2_EVS_total</t>
-  </si>
-  <si>
-    <t>F.A-2_EVS_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Hindi</t>
-  </si>
-  <si>
-    <t>F.A-2_Hindi_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Hindi_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_English II</t>
-  </si>
-  <si>
-    <t>F.A-2_English II_total</t>
-  </si>
-  <si>
-    <t>F.A-2_English II_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Computer</t>
-  </si>
-  <si>
-    <t>F.A-2_Computer_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Computer_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_English I</t>
-  </si>
-  <si>
-    <t>F.A-2_English I_total</t>
-  </si>
-  <si>
-    <t>F.A-2_English I_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Maths</t>
-  </si>
-  <si>
-    <t>F.A-2_Maths_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Maths_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Drawing</t>
-  </si>
-  <si>
-    <t>F.A-2_Drawing_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Drawing_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_Moral Science</t>
-  </si>
-  <si>
-    <t>F.A-2_Moral Science_total</t>
-  </si>
-  <si>
-    <t>F.A-2_Moral Science_pass</t>
-  </si>
-  <si>
-    <t>F.A-2_General Knowledge</t>
-  </si>
-  <si>
-    <t>F.A-2_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>F.A-2_General Knowledge_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Assamese</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Assamese_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Assamese_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_EVS</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_EVS_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_EVS_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Hindi</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Hindi_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Hindi_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English II</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English II_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English II_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Computer</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Computer_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Computer_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English I</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English I_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_English I_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Maths</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Maths_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Maths_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Drawing</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Drawing_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Drawing_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Moral Science</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Moral Science_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_Moral Science_pass</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_General Knowledge</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_General Knowledge_total</t>
-  </si>
-  <si>
-    <t>Half Yearly Exam -2023_General Knowledge_pass</t>
+    <t>FA-I_Assamese</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-I_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-I_EVS</t>
+  </si>
+  <si>
+    <t>FA-I_EVS_total</t>
+  </si>
+  <si>
+    <t>FA-I_EVS_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-I_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English II</t>
+  </si>
+  <si>
+    <t>FA-I_English II_total</t>
+  </si>
+  <si>
+    <t>FA-I_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Computer</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-I_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-I_English I</t>
+  </si>
+  <si>
+    <t>FA-I_English I_total</t>
+  </si>
+  <si>
+    <t>FA-I_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Maths</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-I_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Drawing</t>
+  </si>
+  <si>
+    <t>FA-I_Drawing_total</t>
+  </si>
+  <si>
+    <t>FA-I_Drawing_pass</t>
+  </si>
+  <si>
+    <t>FA-I_Moral Science</t>
+  </si>
+  <si>
+    <t>FA-I_Moral Science_total</t>
+  </si>
+  <si>
+    <t>FA-I_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-I_General Knowledge_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_total</t>
+  </si>
+  <si>
+    <t>FA-II_Assamese_pass</t>
+  </si>
+  <si>
+    <t>FA-II_EVS</t>
+  </si>
+  <si>
+    <t>FA-II_EVS_total</t>
+  </si>
+  <si>
+    <t>FA-II_EVS_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi_total</t>
+  </si>
+  <si>
+    <t>FA-II_Hindi_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English II</t>
+  </si>
+  <si>
+    <t>FA-II_English II_total</t>
+  </si>
+  <si>
+    <t>FA-II_English II_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Computer</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_total</t>
+  </si>
+  <si>
+    <t>FA-II_Computer_pass</t>
+  </si>
+  <si>
+    <t>FA-II_English I</t>
+  </si>
+  <si>
+    <t>FA-II_English I_total</t>
+  </si>
+  <si>
+    <t>FA-II_English I_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Maths</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_total</t>
+  </si>
+  <si>
+    <t>FA-II_Maths_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Drawing</t>
+  </si>
+  <si>
+    <t>FA-II_Drawing_total</t>
+  </si>
+  <si>
+    <t>FA-II_Drawing_pass</t>
+  </si>
+  <si>
+    <t>FA-II_Moral Science</t>
+  </si>
+  <si>
+    <t>FA-II_Moral Science_total</t>
+  </si>
+  <si>
+    <t>FA-II_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>FA-II_General Knowledge_pass</t>
+  </si>
+  <si>
+    <t>HY_Assamese</t>
+  </si>
+  <si>
+    <t>HY_Assamese_total</t>
+  </si>
+  <si>
+    <t>HY_Assamese_pass</t>
+  </si>
+  <si>
+    <t>HY_EVS</t>
+  </si>
+  <si>
+    <t>HY_EVS_total</t>
+  </si>
+  <si>
+    <t>HY_EVS_pass</t>
+  </si>
+  <si>
+    <t>HY_Hindi</t>
+  </si>
+  <si>
+    <t>HY_Hindi_total</t>
+  </si>
+  <si>
+    <t>HY_Hindi_pass</t>
+  </si>
+  <si>
+    <t>HY_English II</t>
+  </si>
+  <si>
+    <t>HY_English II_total</t>
+  </si>
+  <si>
+    <t>HY_English II_pass</t>
+  </si>
+  <si>
+    <t>HY_Computer</t>
+  </si>
+  <si>
+    <t>HY_Computer_total</t>
+  </si>
+  <si>
+    <t>HY_Computer_pass</t>
+  </si>
+  <si>
+    <t>HY_English I</t>
+  </si>
+  <si>
+    <t>HY_English I_total</t>
+  </si>
+  <si>
+    <t>HY_English I_pass</t>
+  </si>
+  <si>
+    <t>HY_Maths</t>
+  </si>
+  <si>
+    <t>HY_Maths_total</t>
+  </si>
+  <si>
+    <t>HY_Maths_pass</t>
+  </si>
+  <si>
+    <t>HY_Drawing</t>
+  </si>
+  <si>
+    <t>HY_Drawing_total</t>
+  </si>
+  <si>
+    <t>HY_Drawing_pass</t>
+  </si>
+  <si>
+    <t>HY_Moral Science</t>
+  </si>
+  <si>
+    <t>HY_Moral Science_total</t>
+  </si>
+  <si>
+    <t>HY_Moral Science_pass</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_total</t>
+  </si>
+  <si>
+    <t>HY_General Knowledge_pass</t>
   </si>
   <si>
     <t>Weightage Assamese</t>
@@ -358,51 +358,6 @@
     <t>Weightage General Knowledge total</t>
   </si>
   <si>
-    <t>Result Assamese</t>
-  </si>
-  <si>
-    <t>Result EVS</t>
-  </si>
-  <si>
-    <t>Result Hindi</t>
-  </si>
-  <si>
-    <t>Result English II</t>
-  </si>
-  <si>
-    <t>Result Computer</t>
-  </si>
-  <si>
-    <t>Result English I</t>
-  </si>
-  <si>
-    <t>Result Maths</t>
-  </si>
-  <si>
-    <t>Result Drawing</t>
-  </si>
-  <si>
-    <t>Result Moral Science</t>
-  </si>
-  <si>
-    <t>Result General Knowledge</t>
-  </si>
-  <si>
-    <t>Total Weightage</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Total Marks</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
     <t>Dechen Tamang</t>
   </si>
   <si>
@@ -509,12 +464,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -872,13 +821,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DY35"/>
+  <dimension ref="A1:DJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:129">
+    <row r="1" spans="1:114">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,61 +1170,16 @@
       <c r="DJ1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="DK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:114">
+      <c r="A2" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="DO1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="DP1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="DQ1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="DR1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:129">
-      <c r="A2" t="s">
-        <v>129</v>
-      </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1610,61 +1514,16 @@
       <c r="DJ2">
         <v>100</v>
       </c>
-      <c r="DK2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU2">
-        <v>911.9999999999999</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW2">
-        <v>940</v>
-      </c>
-      <c r="DX2">
-        <v>97.02127659574467</v>
-      </c>
-      <c r="DY2">
-        <v>1</v>
-      </c>
     </row>
-    <row r="3" spans="1:129">
+    <row r="3" spans="1:114">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1999,61 +1858,16 @@
       <c r="DJ3">
         <v>100</v>
       </c>
-      <c r="DK3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU3">
-        <v>832.8000000000002</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW3">
-        <v>940</v>
-      </c>
-      <c r="DX3">
-        <v>88.59574468085108</v>
-      </c>
-      <c r="DY3">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:129">
+    <row r="4" spans="1:114">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -2388,61 +2202,16 @@
       <c r="DJ4">
         <v>100</v>
       </c>
-      <c r="DK4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU4">
-        <v>817.4000000000001</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW4">
-        <v>940</v>
-      </c>
-      <c r="DX4">
-        <v>86.95744680851065</v>
-      </c>
-      <c r="DY4">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" spans="1:129">
+    <row r="5" spans="1:114">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -2777,61 +2546,16 @@
       <c r="DJ5">
         <v>100</v>
       </c>
-      <c r="DK5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU5">
-        <v>444.8</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW5">
-        <v>940</v>
-      </c>
-      <c r="DX5">
-        <v>47.31914893617022</v>
-      </c>
-      <c r="DY5">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:129">
+    <row r="6" spans="1:114">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -3166,61 +2890,16 @@
       <c r="DJ6">
         <v>100</v>
       </c>
-      <c r="DK6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU6">
-        <v>675.8000000000001</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW6">
-        <v>940</v>
-      </c>
-      <c r="DX6">
-        <v>71.8936170212766</v>
-      </c>
-      <c r="DY6">
-        <v>7</v>
-      </c>
     </row>
-    <row r="7" spans="1:129">
+    <row r="7" spans="1:114">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -3555,61 +3234,16 @@
       <c r="DJ7">
         <v>100</v>
       </c>
-      <c r="DK7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT7" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU7">
-        <v>340.4</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW7">
-        <v>940</v>
-      </c>
-      <c r="DX7">
-        <v>36.21276595744681</v>
-      </c>
-      <c r="DY7">
-        <v>29</v>
-      </c>
     </row>
-    <row r="8" spans="1:129">
+    <row r="8" spans="1:114">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -3944,61 +3578,16 @@
       <c r="DJ8">
         <v>100</v>
       </c>
-      <c r="DK8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU8">
-        <v>595.2</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW8">
-        <v>940</v>
-      </c>
-      <c r="DX8">
-        <v>63.31914893617022</v>
-      </c>
-      <c r="DY8">
-        <v>12</v>
-      </c>
     </row>
-    <row r="9" spans="1:129">
+    <row r="9" spans="1:114">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -4333,61 +3922,16 @@
       <c r="DJ9">
         <v>100</v>
       </c>
-      <c r="DK9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU9">
-        <v>505.8</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW9">
-        <v>940</v>
-      </c>
-      <c r="DX9">
-        <v>53.80851063829787</v>
-      </c>
-      <c r="DY9">
-        <v>17</v>
-      </c>
     </row>
-    <row r="10" spans="1:129">
+    <row r="10" spans="1:114">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -4722,61 +4266,16 @@
       <c r="DJ10">
         <v>100</v>
       </c>
-      <c r="DK10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM10" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN10" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU10">
-        <v>319.52</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW10">
-        <v>940</v>
-      </c>
-      <c r="DX10">
-        <v>33.99148936170213</v>
-      </c>
-      <c r="DY10">
-        <v>30</v>
-      </c>
     </row>
-    <row r="11" spans="1:129">
+    <row r="11" spans="1:114">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -5111,61 +4610,16 @@
       <c r="DJ11">
         <v>100</v>
       </c>
-      <c r="DK11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU11">
-        <v>610.1999999999998</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW11">
-        <v>940</v>
-      </c>
-      <c r="DX11">
-        <v>64.91489361702125</v>
-      </c>
-      <c r="DY11">
-        <v>11</v>
-      </c>
     </row>
-    <row r="12" spans="1:129">
+    <row r="12" spans="1:114">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -5500,61 +4954,16 @@
       <c r="DJ12">
         <v>100</v>
       </c>
-      <c r="DK12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU12">
-        <v>500.72</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW12">
-        <v>940</v>
-      </c>
-      <c r="DX12">
-        <v>53.26808510638298</v>
-      </c>
-      <c r="DY12">
-        <v>18</v>
-      </c>
     </row>
-    <row r="13" spans="1:129">
+    <row r="13" spans="1:114">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -5889,61 +5298,16 @@
       <c r="DJ13">
         <v>100</v>
       </c>
-      <c r="DK13" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL13" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN13" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO13" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ13" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR13" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT13" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU13">
-        <v>296.1999999999999</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW13">
-        <v>940</v>
-      </c>
-      <c r="DX13">
-        <v>31.51063829787233</v>
-      </c>
-      <c r="DY13">
-        <v>31</v>
-      </c>
     </row>
-    <row r="14" spans="1:129">
+    <row r="14" spans="1:114">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -6278,61 +5642,16 @@
       <c r="DJ14">
         <v>100</v>
       </c>
-      <c r="DK14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL14" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN14" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU14">
-        <v>354.5000000000001</v>
-      </c>
-      <c r="DV14" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW14">
-        <v>940</v>
-      </c>
-      <c r="DX14">
-        <v>37.71276595744681</v>
-      </c>
-      <c r="DY14">
-        <v>27</v>
-      </c>
     </row>
-    <row r="15" spans="1:129">
+    <row r="15" spans="1:114">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D15">
         <v>15</v>
@@ -6667,61 +5986,16 @@
       <c r="DJ15">
         <v>100</v>
       </c>
-      <c r="DK15" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU15">
-        <v>290.0000000000001</v>
-      </c>
-      <c r="DV15" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW15">
-        <v>940</v>
-      </c>
-      <c r="DX15">
-        <v>30.85106382978724</v>
-      </c>
-      <c r="DY15">
-        <v>32</v>
-      </c>
     </row>
-    <row r="16" spans="1:129">
+    <row r="16" spans="1:114">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C16" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D16">
         <v>16</v>
@@ -7056,61 +6330,16 @@
       <c r="DJ16">
         <v>100</v>
       </c>
-      <c r="DK16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU16">
-        <v>495.6</v>
-      </c>
-      <c r="DV16" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW16">
-        <v>940</v>
-      </c>
-      <c r="DX16">
-        <v>52.72340425531915</v>
-      </c>
-      <c r="DY16">
-        <v>19</v>
-      </c>
     </row>
-    <row r="17" spans="1:129">
+    <row r="17" spans="1:114">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C17" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D17">
         <v>17</v>
@@ -7445,61 +6674,16 @@
       <c r="DJ17">
         <v>100</v>
       </c>
-      <c r="DK17" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL17" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM17" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO17" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP17" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ17" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR17" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS17" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT17" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU17">
-        <v>347.0000000000001</v>
-      </c>
-      <c r="DV17" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW17">
-        <v>940</v>
-      </c>
-      <c r="DX17">
-        <v>36.91489361702128</v>
-      </c>
-      <c r="DY17">
-        <v>28</v>
-      </c>
     </row>
-    <row r="18" spans="1:129">
+    <row r="18" spans="1:114">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -7834,61 +7018,16 @@
       <c r="DJ18">
         <v>100</v>
       </c>
-      <c r="DK18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU18">
-        <v>662.1999999999999</v>
-      </c>
-      <c r="DV18" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW18">
-        <v>940</v>
-      </c>
-      <c r="DX18">
-        <v>70.44680851063829</v>
-      </c>
-      <c r="DY18">
-        <v>8</v>
-      </c>
     </row>
-    <row r="19" spans="1:129">
+    <row r="19" spans="1:114">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D19">
         <v>19</v>
@@ -8223,61 +7362,16 @@
       <c r="DJ19">
         <v>100</v>
       </c>
-      <c r="DK19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU19">
-        <v>568</v>
-      </c>
-      <c r="DV19" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW19">
-        <v>940</v>
-      </c>
-      <c r="DX19">
-        <v>60.42553191489362</v>
-      </c>
-      <c r="DY19">
-        <v>14</v>
-      </c>
     </row>
-    <row r="20" spans="1:129">
+    <row r="20" spans="1:114">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -8612,61 +7706,16 @@
       <c r="DJ20">
         <v>100</v>
       </c>
-      <c r="DK20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL20" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS20" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU20">
-        <v>435.2</v>
-      </c>
-      <c r="DV20" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW20">
-        <v>940</v>
-      </c>
-      <c r="DX20">
-        <v>46.29787234042553</v>
-      </c>
-      <c r="DY20">
-        <v>25</v>
-      </c>
     </row>
-    <row r="21" spans="1:129">
+    <row r="21" spans="1:114">
       <c r="A21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B21" t="s">
         <v>148</v>
       </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D21">
         <v>21</v>
@@ -9001,61 +8050,16 @@
       <c r="DJ21">
         <v>100</v>
       </c>
-      <c r="DK21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU21">
-        <v>524.4000000000001</v>
-      </c>
-      <c r="DV21" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW21">
-        <v>940</v>
-      </c>
-      <c r="DX21">
-        <v>55.7872340425532</v>
-      </c>
-      <c r="DY21">
-        <v>15</v>
-      </c>
     </row>
-    <row r="22" spans="1:129">
+    <row r="22" spans="1:114">
       <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" t="s">
         <v>149</v>
-      </c>
-      <c r="B22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" t="s">
-        <v>164</v>
       </c>
       <c r="D22">
         <v>22</v>
@@ -9390,61 +8394,16 @@
       <c r="DJ22">
         <v>100</v>
       </c>
-      <c r="DK22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU22">
-        <v>628.6</v>
-      </c>
-      <c r="DV22" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW22">
-        <v>940</v>
-      </c>
-      <c r="DX22">
-        <v>66.87234042553192</v>
-      </c>
-      <c r="DY22">
-        <v>10</v>
-      </c>
     </row>
-    <row r="23" spans="1:129">
+    <row r="23" spans="1:114">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D23">
         <v>23</v>
@@ -9779,61 +8738,16 @@
       <c r="DJ23">
         <v>100</v>
       </c>
-      <c r="DK23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU23">
-        <v>764.0000000000002</v>
-      </c>
-      <c r="DV23" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW23">
-        <v>940</v>
-      </c>
-      <c r="DX23">
-        <v>81.27659574468088</v>
-      </c>
-      <c r="DY23">
-        <v>4</v>
-      </c>
     </row>
-    <row r="24" spans="1:129">
+    <row r="24" spans="1:114">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D24">
         <v>24</v>
@@ -10168,61 +9082,16 @@
       <c r="DJ24">
         <v>100</v>
       </c>
-      <c r="DK24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU24">
-        <v>687.5999999999999</v>
-      </c>
-      <c r="DV24" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW24">
-        <v>940</v>
-      </c>
-      <c r="DX24">
-        <v>73.14893617021275</v>
-      </c>
-      <c r="DY24">
-        <v>6</v>
-      </c>
     </row>
-    <row r="25" spans="1:129">
+    <row r="25" spans="1:114">
       <c r="A25" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D25">
         <v>25</v>
@@ -10557,61 +9426,16 @@
       <c r="DJ25">
         <v>100</v>
       </c>
-      <c r="DK25" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU25">
-        <v>483.6</v>
-      </c>
-      <c r="DV25" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW25">
-        <v>940</v>
-      </c>
-      <c r="DX25">
-        <v>51.4468085106383</v>
-      </c>
-      <c r="DY25">
-        <v>20</v>
-      </c>
     </row>
-    <row r="26" spans="1:129">
+    <row r="26" spans="1:114">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D26">
         <v>26</v>
@@ -10946,61 +9770,16 @@
       <c r="DJ26">
         <v>100</v>
       </c>
-      <c r="DK26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU26">
-        <v>643.4</v>
-      </c>
-      <c r="DV26" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW26">
-        <v>940</v>
-      </c>
-      <c r="DX26">
-        <v>68.44680851063829</v>
-      </c>
-      <c r="DY26">
-        <v>9</v>
-      </c>
     </row>
-    <row r="27" spans="1:129">
+    <row r="27" spans="1:114">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D27">
         <v>27</v>
@@ -11335,61 +10114,16 @@
       <c r="DJ27">
         <v>100</v>
       </c>
-      <c r="DK27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU27">
-        <v>521</v>
-      </c>
-      <c r="DV27" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW27">
-        <v>940</v>
-      </c>
-      <c r="DX27">
-        <v>55.42553191489363</v>
-      </c>
-      <c r="DY27">
-        <v>16</v>
-      </c>
     </row>
-    <row r="28" spans="1:129">
+    <row r="28" spans="1:114">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D28">
         <v>28</v>
@@ -11724,61 +10458,16 @@
       <c r="DJ28">
         <v>100</v>
       </c>
-      <c r="DK28" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL28" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM28" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN28" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO28" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP28" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ28" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR28" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS28" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT28" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU28">
-        <v>242.4</v>
-      </c>
-      <c r="DV28" t="s">
-        <v>166</v>
-      </c>
-      <c r="DW28">
-        <v>940</v>
-      </c>
-      <c r="DX28">
-        <v>25.78723404255319</v>
-      </c>
-      <c r="DY28">
-        <v>33</v>
-      </c>
     </row>
-    <row r="29" spans="1:129">
+    <row r="29" spans="1:114">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C29" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D29">
         <v>29</v>
@@ -12113,61 +10802,16 @@
       <c r="DJ29">
         <v>100</v>
       </c>
-      <c r="DK29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DL29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DN29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DO29" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DR29" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DT29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DU29">
-        <v>203.3</v>
-      </c>
-      <c r="DV29" t="s">
-        <v>166</v>
-      </c>
-      <c r="DW29">
-        <v>940</v>
-      </c>
-      <c r="DX29">
-        <v>21.62765957446809</v>
-      </c>
-      <c r="DY29">
-        <v>34</v>
-      </c>
     </row>
-    <row r="30" spans="1:129">
+    <row r="30" spans="1:114">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D30">
         <v>30</v>
@@ -12502,61 +11146,16 @@
       <c r="DJ30">
         <v>100</v>
       </c>
-      <c r="DK30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL30" t="s">
-        <v>166</v>
-      </c>
-      <c r="DM30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU30">
-        <v>475</v>
-      </c>
-      <c r="DV30" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW30">
-        <v>940</v>
-      </c>
-      <c r="DX30">
-        <v>50.53191489361703</v>
-      </c>
-      <c r="DY30">
-        <v>21</v>
-      </c>
     </row>
-    <row r="31" spans="1:129">
+    <row r="31" spans="1:114">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B31" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D31">
         <v>31</v>
@@ -12891,61 +11490,16 @@
       <c r="DJ31">
         <v>100</v>
       </c>
-      <c r="DK31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU31">
-        <v>743.0000000000001</v>
-      </c>
-      <c r="DV31" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW31">
-        <v>940</v>
-      </c>
-      <c r="DX31">
-        <v>79.04255319148938</v>
-      </c>
-      <c r="DY31">
-        <v>5</v>
-      </c>
     </row>
-    <row r="32" spans="1:129">
+    <row r="32" spans="1:114">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D32">
         <v>32</v>
@@ -13280,61 +11834,16 @@
       <c r="DJ32">
         <v>100</v>
       </c>
-      <c r="DK32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU32">
-        <v>467.7999999999999</v>
-      </c>
-      <c r="DV32" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW32">
-        <v>940</v>
-      </c>
-      <c r="DX32">
-        <v>49.7659574468085</v>
-      </c>
-      <c r="DY32">
-        <v>23</v>
-      </c>
     </row>
-    <row r="33" spans="1:129">
+    <row r="33" spans="1:114">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <v>33</v>
@@ -13669,61 +12178,16 @@
       <c r="DJ33">
         <v>100</v>
       </c>
-      <c r="DK33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU33">
-        <v>430.4</v>
-      </c>
-      <c r="DV33" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW33">
-        <v>940</v>
-      </c>
-      <c r="DX33">
-        <v>45.78723404255319</v>
-      </c>
-      <c r="DY33">
-        <v>26</v>
-      </c>
     </row>
-    <row r="34" spans="1:129">
+    <row r="34" spans="1:114">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D34">
         <v>34</v>
@@ -14058,61 +12522,16 @@
       <c r="DJ34">
         <v>100</v>
       </c>
-      <c r="DK34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU34">
-        <v>469.6</v>
-      </c>
-      <c r="DV34" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW34">
-        <v>940</v>
-      </c>
-      <c r="DX34">
-        <v>49.95744680851064</v>
-      </c>
-      <c r="DY34">
-        <v>22</v>
-      </c>
     </row>
-    <row r="35" spans="1:129">
+    <row r="35" spans="1:114">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D35">
         <v>35</v>
@@ -14446,51 +12865,6 @@
       </c>
       <c r="DJ35">
         <v>100</v>
-      </c>
-      <c r="DK35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DM35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DO35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DP35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DR35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DS35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DT35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DU35">
-        <v>591.1999999999999</v>
-      </c>
-      <c r="DV35" t="s">
-        <v>165</v>
-      </c>
-      <c r="DW35">
-        <v>940</v>
-      </c>
-      <c r="DX35">
-        <v>62.89361702127659</v>
-      </c>
-      <c r="DY35">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
